--- a/data/raw/guardia_2021.xlsx
+++ b/data/raw/guardia_2021.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipesn/Documents/R/despliegue-guardia/data/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipesn/Documents/R/despliegue_guardia_nacional/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1CBB20-2B60-6A42-9A3F-445B6A2CA163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924A7F92-98E1-AB49-95EC-D13469B53256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="1060" windowWidth="27240" windowHeight="15940" xr2:uid="{8250D667-232F-8748-A7CA-D22FA17115D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>ene</t>
   </si>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t>Zacatecas</t>
-  </si>
-  <si>
-    <t>Total mensual</t>
   </si>
 </sst>
 </file>
@@ -599,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7F9FE0-92C1-EA41-8DE1-25BD57E3205A}">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1733,47 +1730,6 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="9">
-        <v>2021</v>
-      </c>
-      <c r="C34" s="4">
-        <f>SUM(C2:C33)</f>
-        <v>98282</v>
-      </c>
-      <c r="D34" s="4">
-        <f t="shared" ref="D34:I34" si="0">SUM(D2:D33)</f>
-        <v>98282</v>
-      </c>
-      <c r="E34" s="4">
-        <f t="shared" si="0"/>
-        <v>99608</v>
-      </c>
-      <c r="F34" s="4">
-        <f t="shared" si="0"/>
-        <v>99608</v>
-      </c>
-      <c r="G34" s="4">
-        <f t="shared" si="0"/>
-        <v>99946</v>
-      </c>
-      <c r="H34" s="4">
-        <f t="shared" si="0"/>
-        <v>99946</v>
-      </c>
-      <c r="I34" s="4">
-        <f t="shared" si="0"/>
-        <v>99946</v>
-      </c>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2:K33">
@@ -1866,8 +1822,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B34 G2:I33">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="B2:B33 G2:I33">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
